--- a/Files/Excel/Land Rover.xlsx
+++ b/Files/Excel/Land Rover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05790A7A-BA43-4FBC-BB1E-361D3BCF5AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365F0E69-2A23-4071-B27E-C94F4C76364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,51 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Land Rover 101 Forward Control</t>
-  </si>
-  <si>
-    <t>Land Rover Defender</t>
-  </si>
-  <si>
-    <t>Land Rover Discovery</t>
-  </si>
-  <si>
-    <t>Land Rover Discovery Sport</t>
-  </si>
-  <si>
-    <t>Land Rover Freelander</t>
-  </si>
-  <si>
-    <t>Land Rover LRX</t>
-  </si>
-  <si>
-    <t>Land Rover Range Rover</t>
-  </si>
-  <si>
-    <t>Land Rover Range Rover Autobiography</t>
-  </si>
-  <si>
-    <t>Land Rover Range Rover Classic</t>
-  </si>
-  <si>
-    <t>Land Rover Range Rover Evoque</t>
-  </si>
-  <si>
-    <t>Land Rover Range Rover Sport</t>
-  </si>
-  <si>
-    <t>Land Rover Série 1</t>
-  </si>
-  <si>
-    <t>Land Rover Wolf</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Foward Control</t>
+  </si>
+  <si>
+    <t>over Autobiography</t>
+  </si>
+  <si>
+    <t>over Classic</t>
+  </si>
+  <si>
+    <t>over Evoque</t>
+  </si>
+  <si>
+    <t>over Sport</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Freelander</t>
+  </si>
+  <si>
+    <t>LRX</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Discovery Sport</t>
+  </si>
+  <si>
+    <t>Range Rover</t>
+  </si>
+  <si>
+    <t>Série</t>
+  </si>
+  <si>
+    <t>Land Rover</t>
   </si>
 </sst>
 </file>
@@ -431,131 +437,173 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+      <selection activeCell="G13" sqref="F12:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
